--- a/Documents/Clientes.xlsx
+++ b/Documents/Clientes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>NOME</t>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t>DATA</t>
-  </si>
-  <si>
-    <t>Bernardo</t>
-  </si>
-  <si>
-    <t>5524998472326</t>
   </si>
 </sst>
 </file>
@@ -667,7 +661,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1146,7 +1139,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1166,15 +1159,9 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45505</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/Clientes.xlsx
+++ b/Documents/Clientes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>NOME</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>DATA</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -1162,9 +1159,7 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
     </row>
